--- a/data/Marriages.xlsx
+++ b/data/Marriages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\margars\Downloads\Documents\GitHub\submissionstrategies\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CDB8F3-19BF-4768-9285-EB470FFBDBE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D87E9EC-0E53-4508-A351-74C465214E4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="5920" windowHeight="2980" xr2:uid="{68547C5E-7BF0-4B02-B51A-5CAC5FB8B758}"/>
   </bookViews>
@@ -2956,8 +2956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E269149-1400-4A79-9CCD-35AD5496B907}">
   <dimension ref="A1:M135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119:A120"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2969,7 +2969,7 @@
     <col min="6" max="6" width="12.1796875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="19.7265625" customWidth="1"/>
     <col min="8" max="8" width="12.1796875" customWidth="1"/>
-    <col min="9" max="9" width="32.26953125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="32.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.6328125" customWidth="1"/>
     <col min="11" max="11" width="4.81640625" customWidth="1"/>
     <col min="12" max="12" width="47.26953125" bestFit="1" customWidth="1"/>
